--- a/EVSE code/Arduino/ReadPilotdata.xlsx
+++ b/EVSE code/Arduino/ReadPilotdata.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luise\Documents\GitHub\EVSE_Smart_Charger\EVSE code\Arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calplug\Documents\GitHub\EVSE_Smart_Charger\EVSE code\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A80F7C-289D-4306-A3AC-BDCC876009E7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="16560" windowHeight="6108" xr2:uid="{97EE3C33-307E-455C-A7CF-8597394E3B63}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="16560" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>state A</t>
   </si>
@@ -38,11 +37,14 @@
   <si>
     <t>requested current</t>
   </si>
+  <si>
+    <t>Estmated Tollerance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,6 +91,4671 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Forward Regression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>state A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46782261592300961"/>
+                  <c:y val="-0.36091025080198308"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>state C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-543348624"/>
+        <c:axId val="-543353520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-543348624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-543353520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-543353520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-543348624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>State A- Backwards Regression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13236023622047244"/>
+                  <c:y val="-0.48070246427529895"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-476149072"/>
+        <c:axId val="-476140368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-476149072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-476140368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-476140368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-476149072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>State C- Backwards Regression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13236023622047244"/>
+                  <c:y val="-0.48070246427529895"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-476147440"/>
+        <c:axId val="-476150704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-476147440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-476150704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-476150704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-476147440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>State B- Backwards Regression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13236023622047244"/>
+                  <c:y val="-0.48070246427529895"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-472321600"/>
+        <c:axId val="-472317792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-472321600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-472317792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-472317792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-472321600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,19 +5054,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AAB00D-2523-4971-893C-B796677B7047}">
-  <dimension ref="C4:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -412,8 +5079,11 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>35</v>
       </c>
@@ -426,8 +5096,11 @@
       <c r="F5">
         <v>58</v>
       </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>30</v>
       </c>
@@ -440,8 +5113,11 @@
       <c r="F6">
         <v>68</v>
       </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>25</v>
       </c>
@@ -454,8 +5130,11 @@
       <c r="F7">
         <v>81</v>
       </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>20</v>
       </c>
@@ -468,8 +5147,11 @@
       <c r="F8">
         <v>102</v>
       </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>15</v>
       </c>
@@ -482,8 +5164,11 @@
       <c r="F9">
         <v>135</v>
       </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>10</v>
       </c>
@@ -496,8 +5181,11 @@
       <c r="F10">
         <v>202</v>
       </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>5</v>
       </c>
@@ -510,8 +5198,11 @@
       <c r="F11">
         <v>400</v>
       </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3</v>
       </c>
@@ -524,8 +5215,12 @@
       <c r="F12">
         <v>661</v>
       </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>